--- a/BRC_input_210720_train.xlsx
+++ b/BRC_input_210720_train.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365skku-my.sharepoint.com/personal/thyoung94_o365_skku_edu/Documents/유방암전이과제/BRC_Meta/CRF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\BRC_Metastasis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A6726A3-7AB5-456E-B16C-C287360D676C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82FE924-5D97-40AA-8AF1-5883C0AFE40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36390" yWindow="8190" windowWidth="16140" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BRC_metastasis_input" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BRC_metastasis_input!$A$1:$Q$197</definedName>
   </definedNames>
@@ -903,6 +906,2894 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="sheet1"/>
+      <sheetName val="Sheet2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="A2">
+            <v>254663</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>1364</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>254697</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>1237</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>254711</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>1015</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>255067</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>779</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>254711</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>956</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>254301</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>1078</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>254931</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>679</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>254469</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>1065</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>255057</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>799</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>255129</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>693</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>254399</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>1057</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>253565</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>718</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>254729</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>992</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>254721</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>2012</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>253602</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>935</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>254341</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>1236</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>254799</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>1143</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>254727</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>1288</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>254385</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>618</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>253602</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>575</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>254153</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>967</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>254325</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>1847</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>254028</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>787</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>253814</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>756</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>254209</v>
+          </cell>
+          <cell r="B26" t="str">
+            <v>745</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>254865</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>1225</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>254315</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v>1226</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>253852</v>
+          </cell>
+          <cell r="B29" t="str">
+            <v>1852</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>254731</v>
+          </cell>
+          <cell r="B30" t="str">
+            <v>911</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>254217</v>
+          </cell>
+          <cell r="B31" t="str">
+            <v>1037</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>254461</v>
+          </cell>
+          <cell r="B32" t="str">
+            <v>1204</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>253850</v>
+          </cell>
+          <cell r="B33" t="str">
+            <v>461</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>253577</v>
+          </cell>
+          <cell r="B34" t="str">
+            <v>883</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>254585</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>1252</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>253624</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>852</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>255181</v>
+          </cell>
+          <cell r="B37" t="str">
+            <v>840</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>254441</v>
+          </cell>
+          <cell r="B38" t="str">
+            <v>1383</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>254681</v>
+          </cell>
+          <cell r="B39" t="str">
+            <v>434</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>254979</v>
+          </cell>
+          <cell r="B40" t="str">
+            <v>1627</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>255057</v>
+          </cell>
+          <cell r="B41" t="str">
+            <v>430</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>253821</v>
+          </cell>
+          <cell r="B42" t="str">
+            <v>951</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>254281</v>
+          </cell>
+          <cell r="B43" t="str">
+            <v>1089</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>254835</v>
+          </cell>
+          <cell r="B44" t="str">
+            <v>826</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>253593</v>
+          </cell>
+          <cell r="B45" t="str">
+            <v>1067</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>254813</v>
+          </cell>
+          <cell r="B46" t="str">
+            <v>1236</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>255007</v>
+          </cell>
+          <cell r="B47" t="str">
+            <v>1069</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>253805</v>
+          </cell>
+          <cell r="B48" t="str">
+            <v>860</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>253918</v>
+          </cell>
+          <cell r="B49" t="str">
+            <v>1139</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>254919</v>
+          </cell>
+          <cell r="B50" t="str">
+            <v>834</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>255007</v>
+          </cell>
+          <cell r="B51" t="str">
+            <v>787</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>254969</v>
+          </cell>
+          <cell r="B52" t="str">
+            <v>1333</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>254695</v>
+          </cell>
+          <cell r="B53" t="str">
+            <v>948</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>254181</v>
+          </cell>
+          <cell r="B54" t="str">
+            <v>1564</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>254057</v>
+          </cell>
+          <cell r="B55" t="str">
+            <v>694</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>255249</v>
+          </cell>
+          <cell r="B56" t="str">
+            <v>1992</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>253939</v>
+          </cell>
+          <cell r="B57" t="str">
+            <v>1444</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>253567</v>
+          </cell>
+          <cell r="B58" t="str">
+            <v>786</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>253716</v>
+          </cell>
+          <cell r="B59" t="str">
+            <v>1236</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>254883</v>
+          </cell>
+          <cell r="B60" t="str">
+            <v>632</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>254120</v>
+          </cell>
+          <cell r="B61" t="str">
+            <v>1784</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>254693</v>
+          </cell>
+          <cell r="B62" t="str">
+            <v>1069</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>253949</v>
+          </cell>
+          <cell r="B63" t="str">
+            <v>1000</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>254375</v>
+          </cell>
+          <cell r="B64" t="str">
+            <v>958</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65">
+            <v>254655</v>
+          </cell>
+          <cell r="B65" t="str">
+            <v>1960</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>254061</v>
+          </cell>
+          <cell r="B66" t="str">
+            <v>771</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>253670</v>
+          </cell>
+          <cell r="B67" t="str">
+            <v>2155</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68">
+            <v>254585</v>
+          </cell>
+          <cell r="B68" t="str">
+            <v>1135</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69">
+            <v>254323</v>
+          </cell>
+          <cell r="B69" t="str">
+            <v>1702</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70">
+            <v>254539</v>
+          </cell>
+          <cell r="B70" t="str">
+            <v>1100</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71">
+            <v>253660</v>
+          </cell>
+          <cell r="B71" t="str">
+            <v>1101</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72">
+            <v>253641</v>
+          </cell>
+          <cell r="B72" t="str">
+            <v>732</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73">
+            <v>254679</v>
+          </cell>
+          <cell r="B73" t="str">
+            <v>716</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74">
+            <v>253670</v>
+          </cell>
+          <cell r="B74" t="str">
+            <v>2061</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75">
+            <v>254953</v>
+          </cell>
+          <cell r="B75" t="str">
+            <v>1163</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76">
+            <v>255206</v>
+          </cell>
+          <cell r="B76" t="str">
+            <v>981</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77">
+            <v>253901</v>
+          </cell>
+          <cell r="B77" t="str">
+            <v>1233</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78">
+            <v>253655</v>
+          </cell>
+          <cell r="B78" t="str">
+            <v>1166</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79">
+            <v>254585</v>
+          </cell>
+          <cell r="B79" t="str">
+            <v>2329</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80">
+            <v>254341</v>
+          </cell>
+          <cell r="B80" t="str">
+            <v>1117</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81">
+            <v>254847</v>
+          </cell>
+          <cell r="B81" t="str">
+            <v>635</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82">
+            <v>254145</v>
+          </cell>
+          <cell r="B82" t="str">
+            <v>1520</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83">
+            <v>255126</v>
+          </cell>
+          <cell r="B83" t="str">
+            <v>1367</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84">
+            <v>254449</v>
+          </cell>
+          <cell r="B84" t="str">
+            <v>1233</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85">
+            <v>254359</v>
+          </cell>
+          <cell r="B85" t="str">
+            <v>1594</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86">
+            <v>254219</v>
+          </cell>
+          <cell r="B86" t="str">
+            <v>814</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87">
+            <v>253653</v>
+          </cell>
+          <cell r="B87" t="str">
+            <v>642</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88">
+            <v>253604</v>
+          </cell>
+          <cell r="B88" t="str">
+            <v>1167</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89">
+            <v>254491</v>
+          </cell>
+          <cell r="B89" t="str">
+            <v>1082</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90">
+            <v>253712</v>
+          </cell>
+          <cell r="B90" t="str">
+            <v>990</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91">
+            <v>254771</v>
+          </cell>
+          <cell r="B91" t="str">
+            <v>1780</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92">
+            <v>254359</v>
+          </cell>
+          <cell r="B92" t="str">
+            <v>2262</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93">
+            <v>254361</v>
+          </cell>
+          <cell r="B93" t="str">
+            <v>1211</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94">
+            <v>253702</v>
+          </cell>
+          <cell r="B94" t="str">
+            <v>1016</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95">
+            <v>254943</v>
+          </cell>
+          <cell r="B95" t="str">
+            <v>991</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96">
+            <v>253575</v>
+          </cell>
+          <cell r="B96" t="str">
+            <v>759</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97">
+            <v>254869</v>
+          </cell>
+          <cell r="B97" t="str">
+            <v>604</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98">
+            <v>254519</v>
+          </cell>
+          <cell r="B98" t="str">
+            <v>643</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99">
+            <v>254675</v>
+          </cell>
+          <cell r="B99" t="str">
+            <v>1329</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100">
+            <v>254853</v>
+          </cell>
+          <cell r="B100" t="str">
+            <v>1569</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101">
+            <v>255237</v>
+          </cell>
+          <cell r="B101" t="str">
+            <v>910</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="A102">
+            <v>254295</v>
+          </cell>
+          <cell r="B102" t="str">
+            <v>2050</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="A103">
+            <v>254211</v>
+          </cell>
+          <cell r="B103" t="str">
+            <v>1190</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="A104">
+            <v>253687</v>
+          </cell>
+          <cell r="B104" t="str">
+            <v>629</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="A105">
+            <v>254757</v>
+          </cell>
+          <cell r="B105" t="str">
+            <v>1142</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="A106">
+            <v>254631</v>
+          </cell>
+          <cell r="B106" t="str">
+            <v>1033</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="A107">
+            <v>254337</v>
+          </cell>
+          <cell r="B107" t="str">
+            <v>1108</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="A108">
+            <v>254767</v>
+          </cell>
+          <cell r="B108" t="str">
+            <v>981</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="A109">
+            <v>254227</v>
+          </cell>
+          <cell r="B109" t="str">
+            <v>1192</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="A110">
+            <v>254897</v>
+          </cell>
+          <cell r="B110" t="str">
+            <v>924</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="A111">
+            <v>254693</v>
+          </cell>
+          <cell r="B111" t="str">
+            <v>852</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="A112">
+            <v>254941</v>
+          </cell>
+          <cell r="B112" t="str">
+            <v>666</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="A113">
+            <v>254303</v>
+          </cell>
+          <cell r="B113" t="str">
+            <v>918</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="A114">
+            <v>254603</v>
+          </cell>
+          <cell r="B114" t="str">
+            <v>1112</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="A115">
+            <v>254065</v>
+          </cell>
+          <cell r="B115" t="str">
+            <v>1204</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="A116">
+            <v>254267</v>
+          </cell>
+          <cell r="B116" t="str">
+            <v>1789</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="A117">
+            <v>254587</v>
+          </cell>
+          <cell r="B117" t="str">
+            <v>1400</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="A118">
+            <v>254665</v>
+          </cell>
+          <cell r="B118" t="str">
+            <v>821</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="A119">
+            <v>253563</v>
+          </cell>
+          <cell r="B119" t="str">
+            <v>683</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="A120">
+            <v>254285</v>
+          </cell>
+          <cell r="B120" t="str">
+            <v>400</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="A121">
+            <v>253915</v>
+          </cell>
+          <cell r="B121" t="str">
+            <v>1295</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="A122">
+            <v>254461</v>
+          </cell>
+          <cell r="B122" t="str">
+            <v>929</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="A123">
+            <v>254929</v>
+          </cell>
+          <cell r="B123" t="str">
+            <v>1041</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="A124">
+            <v>254851</v>
+          </cell>
+          <cell r="B124" t="str">
+            <v>1232</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="A125">
+            <v>254803</v>
+          </cell>
+          <cell r="B125" t="str">
+            <v>1953</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="A126">
+            <v>254295</v>
+          </cell>
+          <cell r="B126" t="str">
+            <v>1226</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="A127">
+            <v>254923</v>
+          </cell>
+          <cell r="B127" t="str">
+            <v>1494</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="A128">
+            <v>253708</v>
+          </cell>
+          <cell r="B128" t="str">
+            <v>1407</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="A129">
+            <v>254627</v>
+          </cell>
+          <cell r="B129" t="str">
+            <v>1531</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="A130">
+            <v>254591</v>
+          </cell>
+          <cell r="B130" t="str">
+            <v>1138</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="A131">
+            <v>255149</v>
+          </cell>
+          <cell r="B131" t="str">
+            <v>651</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="A132">
+            <v>254911</v>
+          </cell>
+          <cell r="B132" t="str">
+            <v>870</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="A133">
+            <v>254255</v>
+          </cell>
+          <cell r="B133" t="str">
+            <v>1456</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="A134">
+            <v>253658</v>
+          </cell>
+          <cell r="B134" t="str">
+            <v>805</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="A135">
+            <v>254775</v>
+          </cell>
+          <cell r="B135" t="str">
+            <v>711</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="A136">
+            <v>253846</v>
+          </cell>
+          <cell r="B136" t="str">
+            <v>1569</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="A137">
+            <v>255266</v>
+          </cell>
+          <cell r="B137" t="str">
+            <v>1025</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="A138">
+            <v>253968</v>
+          </cell>
+          <cell r="B138" t="str">
+            <v>872</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="A139">
+            <v>253674</v>
+          </cell>
+          <cell r="B139" t="str">
+            <v>1373</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="A140">
+            <v>255121</v>
+          </cell>
+          <cell r="B140" t="str">
+            <v>996</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="A141">
+            <v>253608</v>
+          </cell>
+          <cell r="B141" t="str">
+            <v>886</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="A142">
+            <v>253797</v>
+          </cell>
+          <cell r="B142" t="str">
+            <v>406</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="A143">
+            <v>253654</v>
+          </cell>
+          <cell r="B143" t="str">
+            <v>1007</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="A144">
+            <v>253626</v>
+          </cell>
+          <cell r="B144" t="str">
+            <v>595</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="A145">
+            <v>253858</v>
+          </cell>
+          <cell r="B145" t="str">
+            <v>731</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="A146">
+            <v>254411</v>
+          </cell>
+          <cell r="B146" t="str">
+            <v>610</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="A147">
+            <v>253823</v>
+          </cell>
+          <cell r="B147" t="str">
+            <v>847</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="A148">
+            <v>254875</v>
+          </cell>
+          <cell r="B148" t="str">
+            <v>770</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="A149">
+            <v>254451</v>
+          </cell>
+          <cell r="B149" t="str">
+            <v>1074</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="A150">
+            <v>253927</v>
+          </cell>
+          <cell r="B150" t="str">
+            <v>1520</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="A151">
+            <v>255085</v>
+          </cell>
+          <cell r="B151" t="str">
+            <v>1444</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="A152">
+            <v>254467</v>
+          </cell>
+          <cell r="B152" t="str">
+            <v>1256</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="A153">
+            <v>254607</v>
+          </cell>
+          <cell r="B153" t="str">
+            <v>778</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="A154">
+            <v>253989</v>
+          </cell>
+          <cell r="B154" t="str">
+            <v>1445</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="A155">
+            <v>254257</v>
+          </cell>
+          <cell r="B155" t="str">
+            <v>1365</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="A156">
+            <v>254501</v>
+          </cell>
+          <cell r="B156" t="str">
+            <v>849</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="A157">
+            <v>254655</v>
+          </cell>
+          <cell r="B157" t="str">
+            <v>1814</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="A158">
+            <v>253645</v>
+          </cell>
+          <cell r="B158" t="str">
+            <v>1633</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="A159">
+            <v>254124</v>
+          </cell>
+          <cell r="B159" t="str">
+            <v>1128</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="A160">
+            <v>255113</v>
+          </cell>
+          <cell r="B160" t="str">
+            <v>1366</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="A161">
+            <v>254913</v>
+          </cell>
+          <cell r="B161" t="str">
+            <v>1093</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="A162">
+            <v>253810</v>
+          </cell>
+          <cell r="B162" t="str">
+            <v>1737</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="A163">
+            <v>254207</v>
+          </cell>
+          <cell r="B163" t="str">
+            <v>855</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="A164">
+            <v>254233</v>
+          </cell>
+          <cell r="B164" t="str">
+            <v>911</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="A165">
+            <v>253587</v>
+          </cell>
+          <cell r="B165" t="str">
+            <v>995</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="A166">
+            <v>254917</v>
+          </cell>
+          <cell r="B166" t="str">
+            <v>1255</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="A167">
+            <v>254065</v>
+          </cell>
+          <cell r="B167" t="str">
+            <v>2238</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="A168">
+            <v>254943</v>
+          </cell>
+          <cell r="B168" t="str">
+            <v>650</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="A169">
+            <v>253591</v>
+          </cell>
+          <cell r="B169" t="str">
+            <v>750</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="A170">
+            <v>253837</v>
+          </cell>
+          <cell r="B170" t="str">
+            <v>618</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="A171">
+            <v>254587</v>
+          </cell>
+          <cell r="B171" t="str">
+            <v>1114</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="A172">
+            <v>254357</v>
+          </cell>
+          <cell r="B172" t="str">
+            <v>1337</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="A173">
+            <v>254020</v>
+          </cell>
+          <cell r="B173" t="str">
+            <v>1288</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="A174">
+            <v>254207</v>
+          </cell>
+          <cell r="B174" t="str">
+            <v>1180</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="A175">
+            <v>254887</v>
+          </cell>
+          <cell r="B175" t="str">
+            <v>1465</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="A176">
+            <v>254915</v>
+          </cell>
+          <cell r="B176" t="str">
+            <v>1363</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="A177">
+            <v>255167</v>
+          </cell>
+          <cell r="B177" t="str">
+            <v>1329</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="A178">
+            <v>254003</v>
+          </cell>
+          <cell r="B178" t="str">
+            <v>1346</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="A179">
+            <v>253639</v>
+          </cell>
+          <cell r="B179" t="str">
+            <v>681</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="A180">
+            <v>253593</v>
+          </cell>
+          <cell r="B180" t="str">
+            <v>1312</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="A181">
+            <v>253776</v>
+          </cell>
+          <cell r="B181" t="str">
+            <v>1389</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="A182">
+            <v>253885</v>
+          </cell>
+          <cell r="B182" t="str">
+            <v>1042</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="A183">
+            <v>254359</v>
+          </cell>
+          <cell r="B183" t="str">
+            <v>1826</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="A184">
+            <v>254637</v>
+          </cell>
+          <cell r="B184" t="str">
+            <v>940</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="A185">
+            <v>253925</v>
+          </cell>
+          <cell r="B185" t="str">
+            <v>1141</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="A186">
+            <v>253795</v>
+          </cell>
+          <cell r="B186" t="str">
+            <v>1058</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="A187">
+            <v>254691</v>
+          </cell>
+          <cell r="B187" t="str">
+            <v>948</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="A188">
+            <v>253685</v>
+          </cell>
+          <cell r="B188" t="str">
+            <v>1172</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="A189">
+            <v>254503</v>
+          </cell>
+          <cell r="B189" t="str">
+            <v>1949</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="A190">
+            <v>255171</v>
+          </cell>
+          <cell r="B190" t="str">
+            <v>1304</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="A191">
+            <v>255196</v>
+          </cell>
+          <cell r="B191" t="str">
+            <v>1131</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="A192">
+            <v>253787</v>
+          </cell>
+          <cell r="B192" t="str">
+            <v>1143</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="A193">
+            <v>254721</v>
+          </cell>
+          <cell r="B193" t="str">
+            <v>1414</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="A194">
+            <v>255235</v>
+          </cell>
+          <cell r="B194" t="str">
+            <v>1332</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="A195">
+            <v>254841</v>
+          </cell>
+          <cell r="B195" t="str">
+            <v>1589</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="A196">
+            <v>253580</v>
+          </cell>
+          <cell r="B196" t="str">
+            <v>935</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="A197">
+            <v>255259</v>
+          </cell>
+          <cell r="B197" t="str">
+            <v>621</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="A198">
+            <v>254273</v>
+          </cell>
+          <cell r="B198" t="str">
+            <v>1019</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="A199">
+            <v>253810</v>
+          </cell>
+          <cell r="B199" t="str">
+            <v>707</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="A200">
+            <v>254379</v>
+          </cell>
+          <cell r="B200" t="str">
+            <v>1740</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="A201">
+            <v>255196</v>
+          </cell>
+          <cell r="B201" t="str">
+            <v>1869</v>
+          </cell>
+        </row>
+        <row r="202">
+          <cell r="A202">
+            <v>253702</v>
+          </cell>
+          <cell r="B202" t="str">
+            <v>1267</v>
+          </cell>
+        </row>
+        <row r="203">
+          <cell r="A203">
+            <v>254459</v>
+          </cell>
+          <cell r="B203" t="str">
+            <v>2072</v>
+          </cell>
+        </row>
+        <row r="204">
+          <cell r="A204">
+            <v>254617</v>
+          </cell>
+          <cell r="B204" t="str">
+            <v>1147</v>
+          </cell>
+        </row>
+        <row r="205">
+          <cell r="A205">
+            <v>253648</v>
+          </cell>
+          <cell r="B205" t="str">
+            <v>1047</v>
+          </cell>
+        </row>
+        <row r="206">
+          <cell r="A206">
+            <v>254387</v>
+          </cell>
+          <cell r="B206" t="str">
+            <v>1578</v>
+          </cell>
+        </row>
+        <row r="207">
+          <cell r="A207">
+            <v>255157</v>
+          </cell>
+          <cell r="B207" t="str">
+            <v>1091</v>
+          </cell>
+        </row>
+        <row r="208">
+          <cell r="A208">
+            <v>254016</v>
+          </cell>
+          <cell r="B208" t="str">
+            <v>1259</v>
+          </cell>
+        </row>
+        <row r="209">
+          <cell r="A209">
+            <v>254251</v>
+          </cell>
+          <cell r="B209" t="str">
+            <v>1156</v>
+          </cell>
+        </row>
+        <row r="210">
+          <cell r="A210">
+            <v>254753</v>
+          </cell>
+          <cell r="B210" t="str">
+            <v>796</v>
+          </cell>
+        </row>
+        <row r="211">
+          <cell r="A211">
+            <v>254991</v>
+          </cell>
+          <cell r="B211" t="str">
+            <v>1128</v>
+          </cell>
+        </row>
+        <row r="212">
+          <cell r="A212">
+            <v>253578</v>
+          </cell>
+          <cell r="B212" t="str">
+            <v>1063</v>
+          </cell>
+        </row>
+        <row r="213">
+          <cell r="A213">
+            <v>254941</v>
+          </cell>
+          <cell r="B213" t="str">
+            <v>420</v>
+          </cell>
+        </row>
+        <row r="214">
+          <cell r="A214">
+            <v>253606</v>
+          </cell>
+          <cell r="B214" t="str">
+            <v>343</v>
+          </cell>
+        </row>
+        <row r="215">
+          <cell r="A215">
+            <v>254419</v>
+          </cell>
+          <cell r="B215" t="str">
+            <v>890</v>
+          </cell>
+        </row>
+        <row r="216">
+          <cell r="A216">
+            <v>254545</v>
+          </cell>
+          <cell r="B216" t="str">
+            <v>1426</v>
+          </cell>
+        </row>
+        <row r="217">
+          <cell r="A217">
+            <v>254383</v>
+          </cell>
+          <cell r="B217" t="str">
+            <v>1309</v>
+          </cell>
+        </row>
+        <row r="218">
+          <cell r="A218">
+            <v>254279</v>
+          </cell>
+          <cell r="B218" t="str">
+            <v>1259</v>
+          </cell>
+        </row>
+        <row r="219">
+          <cell r="A219">
+            <v>254845</v>
+          </cell>
+          <cell r="B219" t="str">
+            <v>618</v>
+          </cell>
+        </row>
+        <row r="220">
+          <cell r="A220">
+            <v>254311</v>
+          </cell>
+          <cell r="B220" t="str">
+            <v>1202</v>
+          </cell>
+        </row>
+        <row r="221">
+          <cell r="A221">
+            <v>254947</v>
+          </cell>
+          <cell r="B221" t="str">
+            <v>1068</v>
+          </cell>
+        </row>
+        <row r="222">
+          <cell r="A222">
+            <v>254845</v>
+          </cell>
+          <cell r="B222" t="str">
+            <v>510</v>
+          </cell>
+        </row>
+        <row r="223">
+          <cell r="A223">
+            <v>254959</v>
+          </cell>
+          <cell r="B223" t="str">
+            <v>831</v>
+          </cell>
+        </row>
+        <row r="224">
+          <cell r="A224">
+            <v>254525</v>
+          </cell>
+          <cell r="B224" t="str">
+            <v>1314</v>
+          </cell>
+        </row>
+        <row r="225">
+          <cell r="A225">
+            <v>254016</v>
+          </cell>
+          <cell r="B225" t="str">
+            <v>1492</v>
+          </cell>
+        </row>
+        <row r="226">
+          <cell r="A226">
+            <v>254919</v>
+          </cell>
+          <cell r="B226" t="str">
+            <v>540</v>
+          </cell>
+        </row>
+        <row r="227">
+          <cell r="A227">
+            <v>253742</v>
+          </cell>
+          <cell r="B227" t="str">
+            <v>834</v>
+          </cell>
+        </row>
+        <row r="228">
+          <cell r="A228">
+            <v>254055</v>
+          </cell>
+          <cell r="B228" t="str">
+            <v>1809</v>
+          </cell>
+        </row>
+        <row r="229">
+          <cell r="A229">
+            <v>254080</v>
+          </cell>
+          <cell r="B229" t="str">
+            <v>734</v>
+          </cell>
+        </row>
+        <row r="230">
+          <cell r="A230">
+            <v>253935</v>
+          </cell>
+          <cell r="B230" t="str">
+            <v>1660</v>
+          </cell>
+        </row>
+        <row r="231">
+          <cell r="A231">
+            <v>255177</v>
+          </cell>
+          <cell r="B231" t="str">
+            <v>1157</v>
+          </cell>
+        </row>
+        <row r="232">
+          <cell r="A232">
+            <v>253966</v>
+          </cell>
+          <cell r="B232" t="str">
+            <v>917</v>
+          </cell>
+        </row>
+        <row r="233">
+          <cell r="A233">
+            <v>255227</v>
+          </cell>
+          <cell r="B233" t="str">
+            <v>1218</v>
+          </cell>
+        </row>
+        <row r="234">
+          <cell r="A234">
+            <v>253760</v>
+          </cell>
+          <cell r="B234" t="str">
+            <v>1306</v>
+          </cell>
+        </row>
+        <row r="235">
+          <cell r="A235">
+            <v>254102</v>
+          </cell>
+          <cell r="B235" t="str">
+            <v>1495</v>
+          </cell>
+        </row>
+        <row r="236">
+          <cell r="A236">
+            <v>253803</v>
+          </cell>
+          <cell r="B236" t="str">
+            <v>696</v>
+          </cell>
+        </row>
+        <row r="237">
+          <cell r="A237">
+            <v>253943</v>
+          </cell>
+          <cell r="B237" t="str">
+            <v>1311</v>
+          </cell>
+        </row>
+        <row r="238">
+          <cell r="A238">
+            <v>253852</v>
+          </cell>
+          <cell r="B238" t="str">
+            <v>485</v>
+          </cell>
+        </row>
+        <row r="239">
+          <cell r="A239">
+            <v>255133</v>
+          </cell>
+          <cell r="B239" t="str">
+            <v>1689</v>
+          </cell>
+        </row>
+        <row r="240">
+          <cell r="A240">
+            <v>254151</v>
+          </cell>
+          <cell r="B240" t="str">
+            <v>1363</v>
+          </cell>
+        </row>
+        <row r="241">
+          <cell r="A241">
+            <v>254663</v>
+          </cell>
+          <cell r="B241" t="str">
+            <v>2240</v>
+          </cell>
+        </row>
+        <row r="242">
+          <cell r="A242">
+            <v>254831</v>
+          </cell>
+          <cell r="B242" t="str">
+            <v>1908</v>
+          </cell>
+        </row>
+        <row r="243">
+          <cell r="A243">
+            <v>253658</v>
+          </cell>
+          <cell r="B243" t="str">
+            <v>509</v>
+          </cell>
+        </row>
+        <row r="244">
+          <cell r="A244">
+            <v>254543</v>
+          </cell>
+          <cell r="B244" t="str">
+            <v>1564</v>
+          </cell>
+        </row>
+        <row r="245">
+          <cell r="A245">
+            <v>254949</v>
+          </cell>
+          <cell r="B245" t="str">
+            <v>1114</v>
+          </cell>
+        </row>
+        <row r="246">
+          <cell r="A246">
+            <v>254917</v>
+          </cell>
+          <cell r="B246" t="str">
+            <v>1177</v>
+          </cell>
+        </row>
+        <row r="247">
+          <cell r="A247">
+            <v>254959</v>
+          </cell>
+          <cell r="B247" t="str">
+            <v>914</v>
+          </cell>
+        </row>
+        <row r="248">
+          <cell r="A248">
+            <v>253987</v>
+          </cell>
+          <cell r="B248" t="str">
+            <v>1416</v>
+          </cell>
+        </row>
+        <row r="249">
+          <cell r="A249">
+            <v>254407</v>
+          </cell>
+          <cell r="B249" t="str">
+            <v>840</v>
+          </cell>
+        </row>
+        <row r="250">
+          <cell r="A250">
+            <v>254297</v>
+          </cell>
+          <cell r="B250" t="str">
+            <v>1307</v>
+          </cell>
+        </row>
+        <row r="251">
+          <cell r="A251">
+            <v>254126</v>
+          </cell>
+          <cell r="B251" t="str">
+            <v>1050</v>
+          </cell>
+        </row>
+        <row r="252">
+          <cell r="A252">
+            <v>254775</v>
+          </cell>
+          <cell r="B252" t="str">
+            <v>1303</v>
+          </cell>
+        </row>
+        <row r="253">
+          <cell r="A253">
+            <v>255149</v>
+          </cell>
+          <cell r="B253" t="str">
+            <v>926</v>
+          </cell>
+        </row>
+        <row r="254">
+          <cell r="A254">
+            <v>254241</v>
+          </cell>
+          <cell r="B254" t="str">
+            <v>1167</v>
+          </cell>
+        </row>
+        <row r="255">
+          <cell r="A255">
+            <v>255171</v>
+          </cell>
+          <cell r="B255" t="str">
+            <v>1189</v>
+          </cell>
+        </row>
+        <row r="256">
+          <cell r="A256">
+            <v>254783</v>
+          </cell>
+          <cell r="B256" t="str">
+            <v>2122</v>
+          </cell>
+        </row>
+        <row r="257">
+          <cell r="A257">
+            <v>254931</v>
+          </cell>
+          <cell r="B257" t="str">
+            <v>548</v>
+          </cell>
+        </row>
+        <row r="258">
+          <cell r="A258">
+            <v>255001</v>
+          </cell>
+          <cell r="B258" t="str">
+            <v>1125</v>
+          </cell>
+        </row>
+        <row r="259">
+          <cell r="A259">
+            <v>253633</v>
+          </cell>
+          <cell r="B259" t="str">
+            <v>1026</v>
+          </cell>
+        </row>
+        <row r="260">
+          <cell r="A260">
+            <v>254749</v>
+          </cell>
+          <cell r="B260" t="str">
+            <v>1121</v>
+          </cell>
+        </row>
+        <row r="261">
+          <cell r="A261">
+            <v>255209</v>
+          </cell>
+          <cell r="B261" t="str">
+            <v>738</v>
+          </cell>
+        </row>
+        <row r="262">
+          <cell r="A262">
+            <v>253760</v>
+          </cell>
+          <cell r="B262" t="str">
+            <v>598</v>
+          </cell>
+        </row>
+        <row r="263">
+          <cell r="A263">
+            <v>254344</v>
+          </cell>
+          <cell r="B263" t="str">
+            <v>1645</v>
+          </cell>
+        </row>
+        <row r="264">
+          <cell r="A264">
+            <v>253710</v>
+          </cell>
+          <cell r="B264" t="str">
+            <v>1902</v>
+          </cell>
+        </row>
+        <row r="265">
+          <cell r="A265">
+            <v>254909</v>
+          </cell>
+          <cell r="B265" t="str">
+            <v>1063</v>
+          </cell>
+        </row>
+        <row r="266">
+          <cell r="A266">
+            <v>255001</v>
+          </cell>
+          <cell r="B266" t="str">
+            <v>884</v>
+          </cell>
+        </row>
+        <row r="267">
+          <cell r="A267">
+            <v>253766</v>
+          </cell>
+          <cell r="B267" t="str">
+            <v>832</v>
+          </cell>
+        </row>
+        <row r="268">
+          <cell r="A268">
+            <v>255069</v>
+          </cell>
+          <cell r="B268" t="str">
+            <v>806</v>
+          </cell>
+        </row>
+        <row r="269">
+          <cell r="A269">
+            <v>254383</v>
+          </cell>
+          <cell r="B269" t="str">
+            <v>1048</v>
+          </cell>
+        </row>
+        <row r="270">
+          <cell r="A270">
+            <v>254349</v>
+          </cell>
+          <cell r="B270" t="str">
+            <v>1065</v>
+          </cell>
+        </row>
+        <row r="271">
+          <cell r="A271">
+            <v>253738</v>
+          </cell>
+          <cell r="B271" t="str">
+            <v>1381</v>
+          </cell>
+        </row>
+        <row r="272">
+          <cell r="A272">
+            <v>254799</v>
+          </cell>
+          <cell r="B272" t="str">
+            <v>664</v>
+          </cell>
+        </row>
+        <row r="273">
+          <cell r="A273">
+            <v>255223</v>
+          </cell>
+          <cell r="B273" t="str">
+            <v>1244</v>
+          </cell>
+        </row>
+        <row r="274">
+          <cell r="A274">
+            <v>253968</v>
+          </cell>
+          <cell r="B274" t="str">
+            <v>802</v>
+          </cell>
+        </row>
+        <row r="275">
+          <cell r="A275">
+            <v>254102</v>
+          </cell>
+          <cell r="B275" t="str">
+            <v>1368</v>
+          </cell>
+        </row>
+        <row r="276">
+          <cell r="A276">
+            <v>253593</v>
+          </cell>
+          <cell r="B276" t="str">
+            <v>904</v>
+          </cell>
+        </row>
+        <row r="277">
+          <cell r="A277">
+            <v>254991</v>
+          </cell>
+          <cell r="B277" t="str">
+            <v>1546</v>
+          </cell>
+        </row>
+        <row r="278">
+          <cell r="A278">
+            <v>253696</v>
+          </cell>
+          <cell r="B278" t="str">
+            <v>2196</v>
+          </cell>
+        </row>
+        <row r="279">
+          <cell r="A279">
+            <v>254751</v>
+          </cell>
+          <cell r="B279" t="str">
+            <v>1583</v>
+          </cell>
+        </row>
+        <row r="280">
+          <cell r="A280">
+            <v>253653</v>
+          </cell>
+          <cell r="B280" t="str">
+            <v>841</v>
+          </cell>
+        </row>
+        <row r="281">
+          <cell r="A281">
+            <v>255119</v>
+          </cell>
+          <cell r="B281" t="str">
+            <v>1312</v>
+          </cell>
+        </row>
+        <row r="282">
+          <cell r="A282">
+            <v>254855</v>
+          </cell>
+          <cell r="B282" t="str">
+            <v>1420</v>
+          </cell>
+        </row>
+        <row r="283">
+          <cell r="A283">
+            <v>255132</v>
+          </cell>
+          <cell r="B283" t="str">
+            <v>1606</v>
+          </cell>
+        </row>
+        <row r="284">
+          <cell r="A284">
+            <v>254020</v>
+          </cell>
+          <cell r="B284" t="str">
+            <v>930</v>
+          </cell>
+        </row>
+        <row r="285">
+          <cell r="A285">
+            <v>254981</v>
+          </cell>
+          <cell r="B285" t="str">
+            <v>979</v>
+          </cell>
+        </row>
+        <row r="286">
+          <cell r="A286">
+            <v>254088</v>
+          </cell>
+          <cell r="B286" t="str">
+            <v>808</v>
+          </cell>
+        </row>
+        <row r="287">
+          <cell r="A287">
+            <v>253770</v>
+          </cell>
+          <cell r="B287" t="str">
+            <v>723</v>
+          </cell>
+        </row>
+        <row r="288">
+          <cell r="A288">
+            <v>254365</v>
+          </cell>
+          <cell r="B288" t="str">
+            <v>1146</v>
+          </cell>
+        </row>
+        <row r="289">
+          <cell r="A289">
+            <v>254761</v>
+          </cell>
+          <cell r="B289" t="str">
+            <v>1263</v>
+          </cell>
+        </row>
+        <row r="290">
+          <cell r="A290">
+            <v>255113</v>
+          </cell>
+          <cell r="B290" t="str">
+            <v>823</v>
+          </cell>
+        </row>
+        <row r="291">
+          <cell r="A291">
+            <v>254869</v>
+          </cell>
+          <cell r="B291" t="str">
+            <v>659</v>
+          </cell>
+        </row>
+        <row r="292">
+          <cell r="A292">
+            <v>255133</v>
+          </cell>
+          <cell r="B292" t="str">
+            <v>1597</v>
+          </cell>
+        </row>
+        <row r="293">
+          <cell r="A293">
+            <v>255196</v>
+          </cell>
+          <cell r="B293" t="str">
+            <v>1509</v>
+          </cell>
+        </row>
+        <row r="294">
+          <cell r="A294">
+            <v>253770</v>
+          </cell>
+          <cell r="B294" t="str">
+            <v>1136</v>
+          </cell>
+        </row>
+        <row r="295">
+          <cell r="A295">
+            <v>254229</v>
+          </cell>
+          <cell r="B295" t="str">
+            <v>1750</v>
+          </cell>
+        </row>
+        <row r="296">
+          <cell r="A296">
+            <v>254699</v>
+          </cell>
+          <cell r="B296" t="str">
+            <v>1638</v>
+          </cell>
+        </row>
+        <row r="297">
+          <cell r="A297">
+            <v>253931</v>
+          </cell>
+          <cell r="B297" t="str">
+            <v>835</v>
+          </cell>
+        </row>
+        <row r="298">
+          <cell r="A298">
+            <v>254338</v>
+          </cell>
+          <cell r="B298" t="str">
+            <v>1394</v>
+          </cell>
+        </row>
+        <row r="299">
+          <cell r="A299">
+            <v>254721</v>
+          </cell>
+          <cell r="B299" t="str">
+            <v>1191</v>
+          </cell>
+        </row>
+        <row r="300">
+          <cell r="A300">
+            <v>254297</v>
+          </cell>
+          <cell r="B300" t="str">
+            <v>1434</v>
+          </cell>
+        </row>
+        <row r="301">
+          <cell r="A301">
+            <v>254161</v>
+          </cell>
+          <cell r="B301" t="str">
+            <v>1239</v>
+          </cell>
+        </row>
+        <row r="302">
+          <cell r="A302">
+            <v>253610</v>
+          </cell>
+          <cell r="B302" t="str">
+            <v>1520</v>
+          </cell>
+        </row>
+        <row r="303">
+          <cell r="A303">
+            <v>255149</v>
+          </cell>
+          <cell r="B303" t="str">
+            <v>1651</v>
+          </cell>
+        </row>
+        <row r="304">
+          <cell r="A304">
+            <v>254953</v>
+          </cell>
+          <cell r="B304" t="str">
+            <v>621</v>
+          </cell>
+        </row>
+        <row r="305">
+          <cell r="A305">
+            <v>255011</v>
+          </cell>
+          <cell r="B305" t="str">
+            <v>907</v>
+          </cell>
+        </row>
+        <row r="306">
+          <cell r="A306">
+            <v>254509</v>
+          </cell>
+          <cell r="B306" t="str">
+            <v>1206</v>
+          </cell>
+        </row>
+        <row r="307">
+          <cell r="A307">
+            <v>254018</v>
+          </cell>
+          <cell r="B307" t="str">
+            <v>1911</v>
+          </cell>
+        </row>
+        <row r="308">
+          <cell r="A308">
+            <v>254108</v>
+          </cell>
+          <cell r="B308" t="str">
+            <v>1198</v>
+          </cell>
+        </row>
+        <row r="309">
+          <cell r="A309">
+            <v>254861</v>
+          </cell>
+          <cell r="B309" t="str">
+            <v>734</v>
+          </cell>
+        </row>
+        <row r="310">
+          <cell r="A310">
+            <v>254911</v>
+          </cell>
+          <cell r="B310" t="str">
+            <v>1265</v>
+          </cell>
+        </row>
+        <row r="311">
+          <cell r="A311">
+            <v>254671</v>
+          </cell>
+          <cell r="B311" t="str">
+            <v>1829</v>
+          </cell>
+        </row>
+        <row r="312">
+          <cell r="A312">
+            <v>253720</v>
+          </cell>
+          <cell r="B312" t="str">
+            <v>1053</v>
+          </cell>
+        </row>
+        <row r="313">
+          <cell r="A313">
+            <v>255013</v>
+          </cell>
+          <cell r="B313" t="str">
+            <v>1481</v>
+          </cell>
+        </row>
+        <row r="314">
+          <cell r="A314">
+            <v>254915</v>
+          </cell>
+          <cell r="B314" t="str">
+            <v>1544</v>
+          </cell>
+        </row>
+        <row r="315">
+          <cell r="A315">
+            <v>253744</v>
+          </cell>
+          <cell r="B315" t="str">
+            <v>1536</v>
+          </cell>
+        </row>
+        <row r="316">
+          <cell r="A316">
+            <v>253748</v>
+          </cell>
+          <cell r="B316" t="str">
+            <v>1485</v>
+          </cell>
+        </row>
+        <row r="317">
+          <cell r="A317">
+            <v>255117</v>
+          </cell>
+          <cell r="B317" t="str">
+            <v>1013</v>
+          </cell>
+        </row>
+        <row r="318">
+          <cell r="A318">
+            <v>255045</v>
+          </cell>
+          <cell r="B318" t="str">
+            <v>1092</v>
+          </cell>
+        </row>
+        <row r="319">
+          <cell r="A319">
+            <v>254147</v>
+          </cell>
+          <cell r="B319" t="str">
+            <v>965</v>
+          </cell>
+        </row>
+        <row r="320">
+          <cell r="A320">
+            <v>254034</v>
+          </cell>
+          <cell r="B320" t="str">
+            <v>1592</v>
+          </cell>
+        </row>
+        <row r="321">
+          <cell r="A321">
+            <v>254481</v>
+          </cell>
+          <cell r="B321" t="str">
+            <v>445</v>
+          </cell>
+        </row>
+        <row r="322">
+          <cell r="A322">
+            <v>254697</v>
+          </cell>
+          <cell r="B322" t="str">
+            <v>1561</v>
+          </cell>
+        </row>
+        <row r="323">
+          <cell r="A323">
+            <v>254557</v>
+          </cell>
+          <cell r="B323" t="str">
+            <v>914</v>
+          </cell>
+        </row>
+        <row r="324">
+          <cell r="A324">
+            <v>254057</v>
+          </cell>
+          <cell r="B324" t="str">
+            <v>1433</v>
+          </cell>
+        </row>
+        <row r="325">
+          <cell r="A325">
+            <v>253764</v>
+          </cell>
+          <cell r="B325" t="str">
+            <v>551</v>
+          </cell>
+        </row>
+        <row r="326">
+          <cell r="A326">
+            <v>254034</v>
+          </cell>
+          <cell r="B326" t="str">
+            <v>1636</v>
+          </cell>
+        </row>
+        <row r="327">
+          <cell r="A327">
+            <v>254317</v>
+          </cell>
+          <cell r="B327" t="str">
+            <v>1288</v>
+          </cell>
+        </row>
+        <row r="328">
+          <cell r="A328">
+            <v>253783</v>
+          </cell>
+          <cell r="B328" t="str">
+            <v>1840</v>
+          </cell>
+        </row>
+        <row r="329">
+          <cell r="A329">
+            <v>254363</v>
+          </cell>
+          <cell r="B329" t="str">
+            <v>906</v>
+          </cell>
+        </row>
+        <row r="330">
+          <cell r="A330">
+            <v>254753</v>
+          </cell>
+          <cell r="B330" t="str">
+            <v>934</v>
+          </cell>
+        </row>
+        <row r="331">
+          <cell r="A331">
+            <v>254619</v>
+          </cell>
+          <cell r="B331" t="str">
+            <v>708</v>
+          </cell>
+        </row>
+        <row r="332">
+          <cell r="A332">
+            <v>254094</v>
+          </cell>
+          <cell r="B332" t="str">
+            <v>1368</v>
+          </cell>
+        </row>
+        <row r="333">
+          <cell r="A333">
+            <v>253885</v>
+          </cell>
+          <cell r="B333" t="str">
+            <v>914</v>
+          </cell>
+        </row>
+        <row r="334">
+          <cell r="A334">
+            <v>255115</v>
+          </cell>
+          <cell r="B334" t="str">
+            <v>603</v>
+          </cell>
+        </row>
+        <row r="335">
+          <cell r="A335">
+            <v>254835</v>
+          </cell>
+          <cell r="B335" t="str">
+            <v>1190</v>
+          </cell>
+        </row>
+        <row r="336">
+          <cell r="A336">
+            <v>254003</v>
+          </cell>
+          <cell r="B336" t="str">
+            <v>1302</v>
+          </cell>
+        </row>
+        <row r="337">
+          <cell r="A337">
+            <v>254609</v>
+          </cell>
+          <cell r="B337" t="str">
+            <v>818</v>
+          </cell>
+        </row>
+        <row r="338">
+          <cell r="A338">
+            <v>255149</v>
+          </cell>
+          <cell r="B338" t="str">
+            <v>833</v>
+          </cell>
+        </row>
+        <row r="339">
+          <cell r="A339">
+            <v>254607</v>
+          </cell>
+          <cell r="B339" t="str">
+            <v>712</v>
+          </cell>
+        </row>
+        <row r="340">
+          <cell r="A340">
+            <v>255124</v>
+          </cell>
+          <cell r="B340" t="str">
+            <v>1425</v>
+          </cell>
+        </row>
+        <row r="341">
+          <cell r="A341">
+            <v>254139</v>
+          </cell>
+          <cell r="B341" t="str">
+            <v>732</v>
+          </cell>
+        </row>
+        <row r="342">
+          <cell r="A342">
+            <v>254118</v>
+          </cell>
+          <cell r="B342" t="str">
+            <v>1063</v>
+          </cell>
+        </row>
+        <row r="343">
+          <cell r="A343">
+            <v>254791</v>
+          </cell>
+          <cell r="B343" t="str">
+            <v>1191</v>
+          </cell>
+        </row>
+        <row r="344">
+          <cell r="A344">
+            <v>255065</v>
+          </cell>
+          <cell r="B344" t="str">
+            <v>1346</v>
+          </cell>
+        </row>
+        <row r="345">
+          <cell r="A345">
+            <v>254371</v>
+          </cell>
+          <cell r="B345" t="str">
+            <v>1584</v>
+          </cell>
+        </row>
+        <row r="346">
+          <cell r="A346">
+            <v>254935</v>
+          </cell>
+          <cell r="B346" t="str">
+            <v>1370</v>
+          </cell>
+        </row>
+        <row r="347">
+          <cell r="A347">
+            <v>254352</v>
+          </cell>
+          <cell r="B347" t="str">
+            <v>1217</v>
+          </cell>
+        </row>
+        <row r="348">
+          <cell r="A348">
+            <v>255115</v>
+          </cell>
+          <cell r="B348" t="str">
+            <v>1400</v>
+          </cell>
+        </row>
+        <row r="349">
+          <cell r="A349">
+            <v>254755</v>
+          </cell>
+          <cell r="B349" t="str">
+            <v>427</v>
+          </cell>
+        </row>
+        <row r="350">
+          <cell r="A350">
+            <v>253801</v>
+          </cell>
+          <cell r="B350" t="str">
+            <v>1595</v>
+          </cell>
+        </row>
+        <row r="351">
+          <cell r="A351">
+            <v>254365</v>
+          </cell>
+          <cell r="B351" t="str">
+            <v>1048</v>
+          </cell>
+        </row>
+        <row r="352">
+          <cell r="A352">
+            <v>254251</v>
+          </cell>
+          <cell r="B352" t="str">
+            <v>1060</v>
+          </cell>
+        </row>
+        <row r="353">
+          <cell r="A353">
+            <v>255126</v>
+          </cell>
+          <cell r="B353" t="str">
+            <v>1142</v>
+          </cell>
+        </row>
+        <row r="354">
+          <cell r="A354">
+            <v>254699</v>
+          </cell>
+          <cell r="B354" t="str">
+            <v>1807</v>
+          </cell>
+        </row>
+        <row r="355">
+          <cell r="A355">
+            <v>254715</v>
+          </cell>
+          <cell r="B355" t="str">
+            <v>1208</v>
+          </cell>
+        </row>
+        <row r="356">
+          <cell r="A356">
+            <v>254197</v>
+          </cell>
+          <cell r="B356" t="str">
+            <v>550</v>
+          </cell>
+        </row>
+        <row r="357">
+          <cell r="A357">
+            <v>254094</v>
+          </cell>
+          <cell r="B357" t="str">
+            <v>1723</v>
+          </cell>
+        </row>
+        <row r="358">
+          <cell r="A358">
+            <v>254661</v>
+          </cell>
+          <cell r="B358" t="str">
+            <v>1057</v>
+          </cell>
+        </row>
+        <row r="359">
+          <cell r="A359">
+            <v>254358</v>
+          </cell>
+          <cell r="B359" t="str">
+            <v>1072</v>
+          </cell>
+        </row>
+        <row r="360">
+          <cell r="A360">
+            <v>254315</v>
+          </cell>
+          <cell r="B360" t="str">
+            <v>1317</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1204,8 +4095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R197"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V32" sqref="V32"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1314,6 +4205,10 @@
       <c r="N2">
         <v>1</v>
       </c>
+      <c r="O2" t="str">
+        <f>VLOOKUP(R2,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>2196</v>
+      </c>
       <c r="P2" t="s">
         <v>192</v>
       </c>
@@ -1367,6 +4262,10 @@
       <c r="N3">
         <v>0</v>
       </c>
+      <c r="O3" t="str">
+        <f>VLOOKUP(R3,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1407</v>
+      </c>
       <c r="P3" t="s">
         <v>105</v>
       </c>
@@ -1420,6 +4319,10 @@
       <c r="N4">
         <v>1</v>
       </c>
+      <c r="O4" t="str">
+        <f>VLOOKUP(R4,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1306</v>
+      </c>
       <c r="P4" t="s">
         <v>217</v>
       </c>
@@ -1473,6 +4376,10 @@
       <c r="N5">
         <v>0</v>
       </c>
+      <c r="O5" t="str">
+        <f>VLOOKUP(R5,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1389</v>
+      </c>
       <c r="P5" t="s">
         <v>92</v>
       </c>
@@ -1526,6 +4433,10 @@
       <c r="N6">
         <v>1</v>
       </c>
+      <c r="O6" t="str">
+        <f>VLOOKUP(R6,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>406</v>
+      </c>
       <c r="P6" t="s">
         <v>62</v>
       </c>
@@ -1579,6 +4490,10 @@
       <c r="N7">
         <v>1</v>
       </c>
+      <c r="O7" t="str">
+        <f>VLOOKUP(R7,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1367</v>
+      </c>
       <c r="P7" t="s">
         <v>39</v>
       </c>
@@ -1632,6 +4547,10 @@
       <c r="N8">
         <v>1</v>
       </c>
+      <c r="O8" t="str">
+        <f>VLOOKUP(R8,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>693</v>
+      </c>
       <c r="P8" t="s">
         <v>173</v>
       </c>
@@ -1685,6 +4604,10 @@
       <c r="N9">
         <v>1</v>
       </c>
+      <c r="O9" t="str">
+        <f>VLOOKUP(R9,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>840</v>
+      </c>
       <c r="P9" t="s">
         <v>134</v>
       </c>
@@ -1738,6 +4661,10 @@
       <c r="N10">
         <v>0</v>
       </c>
+      <c r="O10" t="str">
+        <f>VLOOKUP(R10,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1425</v>
+      </c>
       <c r="P10" t="s">
         <v>206</v>
       </c>
@@ -1791,6 +4718,10 @@
       <c r="N11">
         <v>0</v>
       </c>
+      <c r="O11" t="str">
+        <f>VLOOKUP(R11,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1007</v>
+      </c>
       <c r="P11" t="s">
         <v>87</v>
       </c>
@@ -1844,6 +4775,10 @@
       <c r="N12">
         <v>0</v>
       </c>
+      <c r="O12" t="str">
+        <f>VLOOKUP(R12,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1139</v>
+      </c>
       <c r="P12" t="s">
         <v>102</v>
       </c>
@@ -1897,6 +4832,10 @@
       <c r="N13">
         <v>1</v>
       </c>
+      <c r="O13" t="str">
+        <f>VLOOKUP(R13,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1346</v>
+      </c>
       <c r="P13" t="s">
         <v>70</v>
       </c>
@@ -1950,6 +4889,10 @@
       <c r="N14">
         <v>1</v>
       </c>
+      <c r="O14" t="str">
+        <f>VLOOKUP(R14,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>935</v>
+      </c>
       <c r="P14" t="s">
         <v>187</v>
       </c>
@@ -2003,6 +4946,10 @@
       <c r="N15">
         <v>0</v>
       </c>
+      <c r="O15" t="str">
+        <f>VLOOKUP(R15,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>906</v>
+      </c>
       <c r="P15" t="s">
         <v>69</v>
       </c>
@@ -2056,6 +5003,10 @@
       <c r="N16">
         <v>0</v>
       </c>
+      <c r="O16" t="str">
+        <f>VLOOKUP(R16,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1394</v>
+      </c>
       <c r="P16" t="s">
         <v>142</v>
       </c>
@@ -2109,6 +5060,10 @@
       <c r="N17">
         <v>1</v>
       </c>
+      <c r="O17" t="str">
+        <f>VLOOKUP(R17,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>995</v>
+      </c>
       <c r="P17" t="s">
         <v>66</v>
       </c>
@@ -2162,6 +5117,10 @@
       <c r="N18">
         <v>1</v>
       </c>
+      <c r="O18" t="str">
+        <f>VLOOKUP(R18,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1217</v>
+      </c>
       <c r="P18" t="s">
         <v>73</v>
       </c>
@@ -2215,6 +5174,10 @@
       <c r="N19">
         <v>1</v>
       </c>
+      <c r="O19" t="str">
+        <f>VLOOKUP(R19,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>852</v>
+      </c>
       <c r="P19" t="s">
         <v>218</v>
       </c>
@@ -2268,6 +5231,10 @@
       <c r="N20">
         <v>1</v>
       </c>
+      <c r="O20" t="str">
+        <f>VLOOKUP(R20,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1594</v>
+      </c>
       <c r="P20" t="s">
         <v>107</v>
       </c>
@@ -2321,6 +5288,10 @@
       <c r="N21">
         <v>1</v>
       </c>
+      <c r="O21" t="str">
+        <f>VLOOKUP(R21,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1645</v>
+      </c>
       <c r="P21" t="s">
         <v>201</v>
       </c>
@@ -2374,6 +5345,10 @@
       <c r="N22">
         <v>1</v>
       </c>
+      <c r="O22" t="str">
+        <f>VLOOKUP(R22,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>849</v>
+      </c>
       <c r="P22" t="s">
         <v>181</v>
       </c>
@@ -2427,6 +5402,10 @@
       <c r="N23">
         <v>1</v>
       </c>
+      <c r="O23" t="str">
+        <f>VLOOKUP(R23,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1259</v>
+      </c>
       <c r="P23" t="s">
         <v>151</v>
       </c>
@@ -2480,6 +5459,10 @@
       <c r="N24">
         <v>1</v>
       </c>
+      <c r="O24" t="str">
+        <f>VLOOKUP(R24,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1143</v>
+      </c>
       <c r="P24" t="s">
         <v>97</v>
       </c>
@@ -2533,6 +5516,10 @@
       <c r="N25">
         <v>1</v>
       </c>
+      <c r="O25" t="str">
+        <f>VLOOKUP(R25,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1445</v>
+      </c>
       <c r="P25" t="s">
         <v>108</v>
       </c>
@@ -2586,6 +5573,10 @@
       <c r="N26">
         <v>1</v>
       </c>
+      <c r="O26" t="str">
+        <f>VLOOKUP(R26,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>756</v>
+      </c>
       <c r="P26" t="s">
         <v>160</v>
       </c>
@@ -2639,6 +5630,10 @@
       <c r="N27">
         <v>1</v>
       </c>
+      <c r="O27" t="str">
+        <f>VLOOKUP(R27,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1329</v>
+      </c>
       <c r="P27" t="s">
         <v>213</v>
       </c>
@@ -2692,6 +5687,10 @@
       <c r="N28">
         <v>1</v>
       </c>
+      <c r="O28" t="str">
+        <f>VLOOKUP(R28,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>400</v>
+      </c>
       <c r="P28" t="s">
         <v>18</v>
       </c>
@@ -2745,6 +5744,10 @@
       <c r="N29">
         <v>1</v>
       </c>
+      <c r="O29" t="str">
+        <f>VLOOKUP(R29,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1840</v>
+      </c>
       <c r="P29" t="s">
         <v>43</v>
       </c>
@@ -2798,6 +5801,10 @@
       <c r="N30">
         <v>1</v>
       </c>
+      <c r="O30" t="str">
+        <f>VLOOKUP(R30,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>718</v>
+      </c>
       <c r="P30" t="s">
         <v>63</v>
       </c>
@@ -2851,6 +5858,10 @@
       <c r="N31">
         <v>0</v>
       </c>
+      <c r="O31" t="str">
+        <f>VLOOKUP(R31,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>883</v>
+      </c>
       <c r="P31" t="s">
         <v>99</v>
       </c>
@@ -2904,6 +5915,10 @@
       <c r="N32">
         <v>0</v>
       </c>
+      <c r="O32" t="str">
+        <f>VLOOKUP(R32,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1067</v>
+      </c>
       <c r="P32" t="s">
         <v>170</v>
       </c>
@@ -2957,6 +5972,10 @@
       <c r="N33">
         <v>0</v>
       </c>
+      <c r="O33" t="str">
+        <f>VLOOKUP(R33,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>935</v>
+      </c>
       <c r="P33" t="s">
         <v>131</v>
       </c>
@@ -3010,6 +6029,10 @@
       <c r="N34">
         <v>0</v>
       </c>
+      <c r="O34" t="str">
+        <f>VLOOKUP(R34,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1167</v>
+      </c>
       <c r="P34" t="s">
         <v>216</v>
       </c>
@@ -3063,6 +6086,10 @@
       <c r="N35">
         <v>1</v>
       </c>
+      <c r="O35" t="str">
+        <f>VLOOKUP(R35,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>343</v>
+      </c>
       <c r="P35" t="s">
         <v>45</v>
       </c>
@@ -3116,6 +6143,10 @@
       <c r="N36">
         <v>1</v>
       </c>
+      <c r="O36" t="str">
+        <f>VLOOKUP(R36,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>886</v>
+      </c>
       <c r="P36" t="s">
         <v>38</v>
       </c>
@@ -3169,6 +6200,10 @@
       <c r="N37">
         <v>0</v>
       </c>
+      <c r="O37" t="str">
+        <f>VLOOKUP(R37,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1520</v>
+      </c>
       <c r="P37" t="s">
         <v>150</v>
       </c>
@@ -3221,6 +6256,10 @@
       </c>
       <c r="N38">
         <v>0</v>
+      </c>
+      <c r="O38" t="str">
+        <f>VLOOKUP(R38,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1026</v>
       </c>
       <c r="P38" t="s">
         <v>141</v>
@@ -3275,6 +6314,10 @@
       <c r="N39">
         <v>1</v>
       </c>
+      <c r="O39" t="str">
+        <f>VLOOKUP(R39,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>681</v>
+      </c>
       <c r="P39" t="s">
         <v>166</v>
       </c>
@@ -3327,6 +6370,10 @@
       </c>
       <c r="N40">
         <v>0</v>
+      </c>
+      <c r="O40" t="str">
+        <f>VLOOKUP(R40,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1633</v>
       </c>
       <c r="P40" t="s">
         <v>111</v>
@@ -3381,6 +6428,10 @@
       <c r="N41">
         <v>1</v>
       </c>
+      <c r="O41" t="str">
+        <f>VLOOKUP(R41,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1101</v>
+      </c>
       <c r="P41" t="s">
         <v>180</v>
       </c>
@@ -3434,6 +6485,10 @@
       <c r="N42">
         <v>1</v>
       </c>
+      <c r="O42" t="str">
+        <f>VLOOKUP(R42,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>2155</v>
+      </c>
       <c r="P42" t="s">
         <v>167</v>
       </c>
@@ -3487,6 +6542,10 @@
       <c r="N43">
         <v>1</v>
       </c>
+      <c r="O43" t="str">
+        <f>VLOOKUP(R43,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1172</v>
+      </c>
       <c r="P43" t="s">
         <v>158</v>
       </c>
@@ -3540,6 +6599,10 @@
       <c r="N44">
         <v>1</v>
       </c>
+      <c r="O44" t="str">
+        <f>VLOOKUP(R44,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1902</v>
+      </c>
       <c r="P44" t="s">
         <v>90</v>
       </c>
@@ -3593,6 +6656,10 @@
       <c r="N45">
         <v>1</v>
       </c>
+      <c r="O45" t="str">
+        <f>VLOOKUP(R45,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>990</v>
+      </c>
       <c r="P45" t="s">
         <v>136</v>
       </c>
@@ -3646,6 +6713,10 @@
       <c r="N46">
         <v>0</v>
       </c>
+      <c r="O46" t="str">
+        <f>VLOOKUP(R46,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1381</v>
+      </c>
       <c r="P46" t="s">
         <v>155</v>
       </c>
@@ -3699,6 +6770,10 @@
       <c r="N47">
         <v>1</v>
       </c>
+      <c r="O47" t="str">
+        <f>VLOOKUP(R47,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1536</v>
+      </c>
       <c r="P47" t="s">
         <v>202</v>
       </c>
@@ -3752,6 +6827,10 @@
       <c r="N48">
         <v>1</v>
       </c>
+      <c r="O48" t="str">
+        <f>VLOOKUP(R48,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1485</v>
+      </c>
       <c r="P48" t="s">
         <v>21</v>
       </c>
@@ -3805,6 +6884,10 @@
       <c r="N49">
         <v>1</v>
       </c>
+      <c r="O49" t="str">
+        <f>VLOOKUP(R49,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1058</v>
+      </c>
       <c r="P49" t="s">
         <v>214</v>
       </c>
@@ -3858,6 +6941,10 @@
       <c r="N50">
         <v>1</v>
       </c>
+      <c r="O50" t="str">
+        <f>VLOOKUP(R50,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1595</v>
+      </c>
       <c r="P50" t="s">
         <v>176</v>
       </c>
@@ -3911,6 +6998,10 @@
       <c r="N51">
         <v>1</v>
       </c>
+      <c r="O51" t="str">
+        <f>VLOOKUP(R51,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>860</v>
+      </c>
       <c r="P51" t="s">
         <v>82</v>
       </c>
@@ -3964,6 +7055,10 @@
       <c r="N52">
         <v>1</v>
       </c>
+      <c r="O52" t="str">
+        <f>VLOOKUP(R52,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>847</v>
+      </c>
       <c r="P52" t="s">
         <v>132</v>
       </c>
@@ -4017,6 +7112,10 @@
       <c r="N53">
         <v>1</v>
       </c>
+      <c r="O53" t="str">
+        <f>VLOOKUP(R53,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>618</v>
+      </c>
       <c r="P53" t="s">
         <v>175</v>
       </c>
@@ -4070,6 +7169,10 @@
       <c r="N54">
         <v>1</v>
       </c>
+      <c r="O54" t="str">
+        <f>VLOOKUP(R54,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>461</v>
+      </c>
       <c r="P54" t="s">
         <v>149</v>
       </c>
@@ -4123,6 +7226,10 @@
       <c r="N55">
         <v>0</v>
       </c>
+      <c r="O55" t="str">
+        <f>VLOOKUP(R55,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1852</v>
+      </c>
       <c r="P55" t="s">
         <v>27</v>
       </c>
@@ -4176,6 +7283,10 @@
       <c r="N56">
         <v>1</v>
       </c>
+      <c r="O56" t="str">
+        <f>VLOOKUP(R56,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1042</v>
+      </c>
       <c r="P56" t="s">
         <v>80</v>
       </c>
@@ -4229,6 +7340,10 @@
       <c r="N57">
         <v>1</v>
       </c>
+      <c r="O57" t="str">
+        <f>VLOOKUP(R57,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1233</v>
+      </c>
       <c r="P57" t="s">
         <v>88</v>
       </c>
@@ -4282,6 +7397,10 @@
       <c r="N58">
         <v>0</v>
       </c>
+      <c r="O58" t="str">
+        <f>VLOOKUP(R58,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1295</v>
+      </c>
       <c r="P58" t="s">
         <v>162</v>
       </c>
@@ -4335,6 +7454,10 @@
       <c r="N59">
         <v>0</v>
       </c>
+      <c r="O59" t="str">
+        <f>VLOOKUP(R59,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1141</v>
+      </c>
       <c r="P59" t="s">
         <v>188</v>
       </c>
@@ -4388,6 +7511,10 @@
       <c r="N60">
         <v>1</v>
       </c>
+      <c r="O60" t="str">
+        <f>VLOOKUP(R60,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1444</v>
+      </c>
       <c r="P60" t="s">
         <v>103</v>
       </c>
@@ -4441,6 +7568,10 @@
       <c r="N61">
         <v>0</v>
       </c>
+      <c r="O61" t="str">
+        <f>VLOOKUP(R61,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1311</v>
+      </c>
       <c r="P61" t="s">
         <v>50</v>
       </c>
@@ -4494,6 +7625,10 @@
       <c r="N62">
         <v>1</v>
       </c>
+      <c r="O62" t="str">
+        <f>VLOOKUP(R62,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>917</v>
+      </c>
       <c r="P62" t="s">
         <v>191</v>
       </c>
@@ -4547,6 +7682,10 @@
       <c r="N63">
         <v>0</v>
       </c>
+      <c r="O63" t="str">
+        <f>VLOOKUP(R63,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1416</v>
+      </c>
       <c r="P63" t="s">
         <v>114</v>
       </c>
@@ -4600,6 +7739,10 @@
       <c r="N64">
         <v>1</v>
       </c>
+      <c r="O64" t="str">
+        <f>VLOOKUP(R64,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1911</v>
+      </c>
       <c r="P64" t="s">
         <v>128</v>
       </c>
@@ -4653,6 +7796,10 @@
       <c r="N65">
         <v>1</v>
       </c>
+      <c r="O65" t="str">
+        <f>VLOOKUP(R65,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1592</v>
+      </c>
       <c r="P65" t="s">
         <v>135</v>
       </c>
@@ -4706,6 +7853,10 @@
       <c r="N66">
         <v>1</v>
       </c>
+      <c r="O66" t="e">
+        <f>VLOOKUP(R66,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="P66" t="s">
         <v>143</v>
       </c>
@@ -4759,6 +7910,10 @@
       <c r="N67">
         <v>1</v>
       </c>
+      <c r="O67" t="str">
+        <f>VLOOKUP(R67,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1204</v>
+      </c>
       <c r="P67" t="s">
         <v>101</v>
       </c>
@@ -4812,6 +7967,10 @@
       <c r="N68">
         <v>1</v>
       </c>
+      <c r="O68" t="str">
+        <f>VLOOKUP(R68,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>734</v>
+      </c>
       <c r="P68" t="s">
         <v>126</v>
       </c>
@@ -4865,6 +8024,10 @@
       <c r="N69">
         <v>0</v>
       </c>
+      <c r="O69" t="str">
+        <f>VLOOKUP(R69,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>808</v>
+      </c>
       <c r="P69" t="s">
         <v>174</v>
       </c>
@@ -4918,6 +8081,10 @@
       <c r="N70">
         <v>0</v>
       </c>
+      <c r="O70" t="str">
+        <f>VLOOKUP(R70,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1368</v>
+      </c>
       <c r="P70" t="s">
         <v>94</v>
       </c>
@@ -4971,6 +8138,10 @@
       <c r="N71">
         <v>1</v>
       </c>
+      <c r="O71" t="str">
+        <f>VLOOKUP(R71,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1495</v>
+      </c>
       <c r="P71" t="s">
         <v>121</v>
       </c>
@@ -5024,6 +8195,10 @@
       <c r="N72">
         <v>1</v>
       </c>
+      <c r="O72" t="str">
+        <f>VLOOKUP(R72,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1198</v>
+      </c>
       <c r="P72" t="s">
         <v>211</v>
       </c>
@@ -5077,6 +8252,10 @@
       <c r="N73">
         <v>1</v>
       </c>
+      <c r="O73" t="str">
+        <f>VLOOKUP(R73,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1784</v>
+      </c>
       <c r="P73" t="s">
         <v>127</v>
       </c>
@@ -5130,6 +8309,10 @@
       <c r="N74">
         <v>1</v>
       </c>
+      <c r="O74" t="str">
+        <f>VLOOKUP(R74,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1050</v>
+      </c>
       <c r="P74" t="s">
         <v>119</v>
       </c>
@@ -5183,6 +8366,10 @@
       <c r="N75">
         <v>1</v>
       </c>
+      <c r="O75" t="e">
+        <f>VLOOKUP(R75,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="P75" t="s">
         <v>161</v>
       </c>
@@ -5236,6 +8423,10 @@
       <c r="N76">
         <v>1</v>
       </c>
+      <c r="O76" t="str">
+        <f>VLOOKUP(R76,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>965</v>
+      </c>
       <c r="P76" t="s">
         <v>185</v>
       </c>
@@ -5289,6 +8480,10 @@
       <c r="N77">
         <v>1</v>
       </c>
+      <c r="O77" t="str">
+        <f>VLOOKUP(R77,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1363</v>
+      </c>
       <c r="P77" t="s">
         <v>194</v>
       </c>
@@ -5342,6 +8537,10 @@
       <c r="N78">
         <v>1</v>
       </c>
+      <c r="O78" t="str">
+        <f>VLOOKUP(R78,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>967</v>
+      </c>
       <c r="P78" t="s">
         <v>139</v>
       </c>
@@ -5395,6 +8594,10 @@
       <c r="N79">
         <v>1</v>
       </c>
+      <c r="O79" t="str">
+        <f>VLOOKUP(R79,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1239</v>
+      </c>
       <c r="P79" t="s">
         <v>34</v>
       </c>
@@ -5448,6 +8651,10 @@
       <c r="N80">
         <v>0</v>
       </c>
+      <c r="O80" t="str">
+        <f>VLOOKUP(R80,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1564</v>
+      </c>
       <c r="P80" t="s">
         <v>140</v>
       </c>
@@ -5501,6 +8708,10 @@
       <c r="N81">
         <v>1</v>
       </c>
+      <c r="O81" t="str">
+        <f>VLOOKUP(R81,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>550</v>
+      </c>
       <c r="P81" t="s">
         <v>169</v>
       </c>
@@ -5554,6 +8765,10 @@
       <c r="N82">
         <v>0</v>
       </c>
+      <c r="O82" t="str">
+        <f>VLOOKUP(R82,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>855</v>
+      </c>
       <c r="P82" t="s">
         <v>31</v>
       </c>
@@ -5607,6 +8822,10 @@
       <c r="N83">
         <v>1</v>
       </c>
+      <c r="O83" t="str">
+        <f>VLOOKUP(R83,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>745</v>
+      </c>
       <c r="P83" t="s">
         <v>53</v>
       </c>
@@ -5660,6 +8879,10 @@
       <c r="N84">
         <v>1</v>
       </c>
+      <c r="O84" t="str">
+        <f>VLOOKUP(R84,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1190</v>
+      </c>
       <c r="P84" t="s">
         <v>164</v>
       </c>
@@ -5713,6 +8936,10 @@
       <c r="N85">
         <v>0</v>
       </c>
+      <c r="O85" t="str">
+        <f>VLOOKUP(R85,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1037</v>
+      </c>
       <c r="P85" t="s">
         <v>145</v>
       </c>
@@ -5766,6 +8993,10 @@
       <c r="N86">
         <v>1</v>
       </c>
+      <c r="O86" t="str">
+        <f>VLOOKUP(R86,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>814</v>
+      </c>
       <c r="P86" t="s">
         <v>137</v>
       </c>
@@ -5819,6 +9050,10 @@
       <c r="N87">
         <v>1</v>
       </c>
+      <c r="O87" t="str">
+        <f>VLOOKUP(R87,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1192</v>
+      </c>
       <c r="P87" t="s">
         <v>46</v>
       </c>
@@ -5872,6 +9107,10 @@
       <c r="N88">
         <v>0</v>
       </c>
+      <c r="O88" t="str">
+        <f>VLOOKUP(R88,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1750</v>
+      </c>
       <c r="P88" t="s">
         <v>195</v>
       </c>
@@ -5925,6 +9164,10 @@
       <c r="N89">
         <v>1</v>
       </c>
+      <c r="O89" t="str">
+        <f>VLOOKUP(R89,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>911</v>
+      </c>
       <c r="P89" t="s">
         <v>182</v>
       </c>
@@ -5978,6 +9221,10 @@
       <c r="N90">
         <v>1</v>
       </c>
+      <c r="O90" t="str">
+        <f>VLOOKUP(R90,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1167</v>
+      </c>
       <c r="P90" t="s">
         <v>133</v>
       </c>
@@ -6031,6 +9278,10 @@
       <c r="N91">
         <v>1</v>
       </c>
+      <c r="O91" t="str">
+        <f>VLOOKUP(R91,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1156</v>
+      </c>
       <c r="P91" t="s">
         <v>215</v>
       </c>
@@ -6084,6 +9335,10 @@
       <c r="N92">
         <v>1</v>
       </c>
+      <c r="O92" t="str">
+        <f>VLOOKUP(R92,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1456</v>
+      </c>
       <c r="P92" t="s">
         <v>223</v>
       </c>
@@ -6137,6 +9392,10 @@
       <c r="N93">
         <v>0</v>
       </c>
+      <c r="O93" t="str">
+        <f>VLOOKUP(R93,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1365</v>
+      </c>
       <c r="P93" t="s">
         <v>177</v>
       </c>
@@ -6190,6 +9449,10 @@
       <c r="N94">
         <v>0</v>
       </c>
+      <c r="O94" t="str">
+        <f>VLOOKUP(R94,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1789</v>
+      </c>
       <c r="P94" t="s">
         <v>148</v>
       </c>
@@ -6243,6 +9506,10 @@
       <c r="N95">
         <v>0</v>
       </c>
+      <c r="O95" t="str">
+        <f>VLOOKUP(R95,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1019</v>
+      </c>
       <c r="P95" t="s">
         <v>156</v>
       </c>
@@ -6296,6 +9563,10 @@
       <c r="N96">
         <v>1</v>
       </c>
+      <c r="O96" t="str">
+        <f>VLOOKUP(R96,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>2050</v>
+      </c>
       <c r="P96" t="s">
         <v>115</v>
       </c>
@@ -6349,6 +9620,10 @@
       <c r="N97">
         <v>0</v>
       </c>
+      <c r="O97" t="str">
+        <f>VLOOKUP(R97,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1307</v>
+      </c>
       <c r="P97" t="s">
         <v>189</v>
       </c>
@@ -6402,6 +9677,10 @@
       <c r="N98">
         <v>0</v>
       </c>
+      <c r="O98" t="str">
+        <f>VLOOKUP(R98,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>918</v>
+      </c>
       <c r="P98" t="s">
         <v>225</v>
       </c>
@@ -6455,6 +9734,10 @@
       <c r="N99">
         <v>1</v>
       </c>
+      <c r="O99" t="e">
+        <f>VLOOKUP(R99,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="P99" t="s">
         <v>104</v>
       </c>
@@ -6508,6 +9791,10 @@
       <c r="N100">
         <v>1</v>
       </c>
+      <c r="O100" t="str">
+        <f>VLOOKUP(R100,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1288</v>
+      </c>
       <c r="P100" t="s">
         <v>68</v>
       </c>
@@ -6561,6 +9848,10 @@
       <c r="N101">
         <v>1</v>
       </c>
+      <c r="O101" t="str">
+        <f>VLOOKUP(R101,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1847</v>
+      </c>
       <c r="P101" t="s">
         <v>183</v>
       </c>
@@ -6614,6 +9905,10 @@
       <c r="N102">
         <v>1</v>
       </c>
+      <c r="O102" t="str">
+        <f>VLOOKUP(R102,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1108</v>
+      </c>
       <c r="P102" t="s">
         <v>200</v>
       </c>
@@ -6667,6 +9962,10 @@
       <c r="N103">
         <v>1</v>
       </c>
+      <c r="O103" t="str">
+        <f>VLOOKUP(R103,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1065</v>
+      </c>
       <c r="P103" t="s">
         <v>224</v>
       </c>
@@ -6720,6 +10019,10 @@
       <c r="N104">
         <v>1</v>
       </c>
+      <c r="O104" t="str">
+        <f>VLOOKUP(R104,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1337</v>
+      </c>
       <c r="P104" t="s">
         <v>61</v>
       </c>
@@ -6773,6 +10076,10 @@
       <c r="N105">
         <v>0</v>
       </c>
+      <c r="O105" t="str">
+        <f>VLOOKUP(R105,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1146</v>
+      </c>
       <c r="P105" t="s">
         <v>184</v>
       </c>
@@ -6826,6 +10133,10 @@
       <c r="N106">
         <v>0</v>
       </c>
+      <c r="O106" t="str">
+        <f>VLOOKUP(R106,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1584</v>
+      </c>
       <c r="P106" t="s">
         <v>222</v>
       </c>
@@ -6879,6 +10190,10 @@
       <c r="N107">
         <v>1</v>
       </c>
+      <c r="O107" t="str">
+        <f>VLOOKUP(R107,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>958</v>
+      </c>
       <c r="P107" t="s">
         <v>37</v>
       </c>
@@ -6932,6 +10247,10 @@
       <c r="N108">
         <v>0</v>
       </c>
+      <c r="O108" t="str">
+        <f>VLOOKUP(R108,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1309</v>
+      </c>
       <c r="P108" t="s">
         <v>23</v>
       </c>
@@ -6985,6 +10304,10 @@
       <c r="N109">
         <v>1</v>
       </c>
+      <c r="O109" t="e">
+        <f>VLOOKUP(R109,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="P109" t="s">
         <v>146</v>
       </c>
@@ -7038,6 +10361,10 @@
       <c r="N110">
         <v>1</v>
       </c>
+      <c r="O110" t="str">
+        <f>VLOOKUP(R110,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>840</v>
+      </c>
       <c r="P110" t="s">
         <v>36</v>
       </c>
@@ -7091,6 +10418,10 @@
       <c r="N111">
         <v>0</v>
       </c>
+      <c r="O111" t="str">
+        <f>VLOOKUP(R111,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>890</v>
+      </c>
       <c r="P111" t="s">
         <v>190</v>
       </c>
@@ -7144,6 +10475,10 @@
       <c r="N112">
         <v>1</v>
       </c>
+      <c r="O112" t="str">
+        <f>VLOOKUP(R112,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1383</v>
+      </c>
       <c r="P112" t="s">
         <v>198</v>
       </c>
@@ -7197,6 +10532,10 @@
       <c r="N113">
         <v>1</v>
       </c>
+      <c r="O113" t="str">
+        <f>VLOOKUP(R113,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1233</v>
+      </c>
       <c r="P113" t="s">
         <v>130</v>
       </c>
@@ -7250,6 +10589,10 @@
       <c r="N114">
         <v>1</v>
       </c>
+      <c r="O114" t="str">
+        <f>VLOOKUP(R114,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1074</v>
+      </c>
       <c r="P114" t="s">
         <v>95</v>
       </c>
@@ -7303,6 +10646,10 @@
       <c r="N115">
         <v>1</v>
       </c>
+      <c r="O115" t="str">
+        <f>VLOOKUP(R115,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1204</v>
+      </c>
       <c r="P115" t="s">
         <v>171</v>
       </c>
@@ -7356,6 +10703,10 @@
       <c r="N116">
         <v>0</v>
       </c>
+      <c r="O116" t="str">
+        <f>VLOOKUP(R116,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1065</v>
+      </c>
       <c r="P116" t="s">
         <v>228</v>
       </c>
@@ -7409,6 +10760,10 @@
       <c r="N117">
         <v>1</v>
       </c>
+      <c r="O117" t="str">
+        <f>VLOOKUP(R117,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>445</v>
+      </c>
       <c r="P117" t="s">
         <v>55</v>
       </c>
@@ -7462,6 +10817,10 @@
       <c r="N118">
         <v>1</v>
       </c>
+      <c r="O118" t="str">
+        <f>VLOOKUP(R118,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1949</v>
+      </c>
       <c r="P118" t="s">
         <v>85</v>
       </c>
@@ -7515,6 +10874,10 @@
       <c r="N119">
         <v>1</v>
       </c>
+      <c r="O119" t="str">
+        <f>VLOOKUP(R119,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1314</v>
+      </c>
       <c r="P119" t="s">
         <v>33</v>
       </c>
@@ -7568,6 +10931,10 @@
       <c r="N120">
         <v>1</v>
       </c>
+      <c r="O120" t="str">
+        <f>VLOOKUP(R120,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1100</v>
+      </c>
       <c r="P120" t="s">
         <v>71</v>
       </c>
@@ -7621,6 +10988,10 @@
       <c r="N121">
         <v>1</v>
       </c>
+      <c r="O121" t="str">
+        <f>VLOOKUP(R121,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1564</v>
+      </c>
       <c r="P121" t="s">
         <v>40</v>
       </c>
@@ -7674,6 +11045,10 @@
       <c r="N122">
         <v>1</v>
       </c>
+      <c r="O122" t="str">
+        <f>VLOOKUP(R122,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1426</v>
+      </c>
       <c r="P122" t="s">
         <v>74</v>
       </c>
@@ -7727,6 +11102,10 @@
       <c r="N123">
         <v>0</v>
       </c>
+      <c r="O123" t="e">
+        <f>VLOOKUP(R123,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="P123" t="s">
         <v>100</v>
       </c>
@@ -7780,6 +11159,10 @@
       <c r="N124">
         <v>1</v>
       </c>
+      <c r="O124" t="str">
+        <f>VLOOKUP(R124,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>778</v>
+      </c>
       <c r="P124" t="s">
         <v>204</v>
       </c>
@@ -7833,6 +11216,10 @@
       <c r="N125">
         <v>1</v>
       </c>
+      <c r="O125" t="str">
+        <f>VLOOKUP(R125,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>818</v>
+      </c>
       <c r="P125" t="s">
         <v>29</v>
       </c>
@@ -7886,6 +11273,10 @@
       <c r="N126">
         <v>1</v>
       </c>
+      <c r="O126" t="str">
+        <f>VLOOKUP(R126,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1147</v>
+      </c>
       <c r="P126" t="s">
         <v>221</v>
       </c>
@@ -7939,6 +11330,10 @@
       <c r="N127">
         <v>1</v>
       </c>
+      <c r="O127" t="str">
+        <f>VLOOKUP(R127,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>708</v>
+      </c>
       <c r="P127" t="s">
         <v>153</v>
       </c>
@@ -7992,6 +11387,10 @@
       <c r="N128">
         <v>1</v>
       </c>
+      <c r="O128" t="str">
+        <f>VLOOKUP(R128,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1531</v>
+      </c>
       <c r="P128" t="s">
         <v>159</v>
       </c>
@@ -8045,6 +11444,10 @@
       <c r="N129">
         <v>1</v>
       </c>
+      <c r="O129" t="str">
+        <f>VLOOKUP(R129,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>940</v>
+      </c>
       <c r="P129" t="s">
         <v>49</v>
       </c>
@@ -8098,6 +11501,10 @@
       <c r="N130">
         <v>0</v>
       </c>
+      <c r="O130" t="str">
+        <f>VLOOKUP(R130,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1960</v>
+      </c>
       <c r="P130" t="s">
         <v>109</v>
       </c>
@@ -8151,6 +11558,10 @@
       <c r="N131">
         <v>0</v>
       </c>
+      <c r="O131" t="str">
+        <f>VLOOKUP(R131,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1057</v>
+      </c>
       <c r="P131" t="s">
         <v>54</v>
       </c>
@@ -8204,6 +11615,10 @@
       <c r="N132">
         <v>1</v>
       </c>
+      <c r="O132" t="str">
+        <f>VLOOKUP(R132,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>821</v>
+      </c>
       <c r="P132" t="s">
         <v>84</v>
       </c>
@@ -8257,6 +11672,10 @@
       <c r="N133">
         <v>0</v>
       </c>
+      <c r="O133" t="str">
+        <f>VLOOKUP(R133,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1329</v>
+      </c>
       <c r="P133" t="s">
         <v>178</v>
       </c>
@@ -8310,6 +11729,10 @@
       <c r="N134">
         <v>0</v>
       </c>
+      <c r="O134" t="str">
+        <f>VLOOKUP(R134,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>716</v>
+      </c>
       <c r="P134" t="s">
         <v>208</v>
       </c>
@@ -8363,6 +11786,10 @@
       <c r="N135">
         <v>1</v>
       </c>
+      <c r="O135" t="str">
+        <f>VLOOKUP(R135,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>434</v>
+      </c>
       <c r="P135" t="s">
         <v>89</v>
       </c>
@@ -8416,6 +11843,10 @@
       <c r="N136">
         <v>0</v>
       </c>
+      <c r="O136" t="str">
+        <f>VLOOKUP(R136,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1069</v>
+      </c>
       <c r="P136" t="s">
         <v>138</v>
       </c>
@@ -8469,6 +11900,10 @@
       <c r="N137">
         <v>0</v>
       </c>
+      <c r="O137" t="str">
+        <f>VLOOKUP(R137,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>948</v>
+      </c>
       <c r="P137" t="s">
         <v>123</v>
       </c>
@@ -8522,6 +11957,10 @@
       <c r="N138">
         <v>1</v>
       </c>
+      <c r="O138" t="str">
+        <f>VLOOKUP(R138,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1015</v>
+      </c>
       <c r="P138" t="s">
         <v>168</v>
       </c>
@@ -8575,6 +12014,10 @@
       <c r="N139">
         <v>0</v>
       </c>
+      <c r="O139" t="str">
+        <f>VLOOKUP(R139,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>2012</v>
+      </c>
       <c r="P139" t="s">
         <v>118</v>
       </c>
@@ -8628,6 +12071,10 @@
       <c r="N140">
         <v>1</v>
       </c>
+      <c r="O140" t="str">
+        <f>VLOOKUP(R140,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>992</v>
+      </c>
       <c r="P140" t="s">
         <v>64</v>
       </c>
@@ -8681,6 +12128,10 @@
       <c r="N141">
         <v>0</v>
       </c>
+      <c r="O141" t="str">
+        <f>VLOOKUP(R141,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>911</v>
+      </c>
       <c r="P141" t="s">
         <v>165</v>
       </c>
@@ -8734,6 +12185,10 @@
       <c r="N142">
         <v>0</v>
       </c>
+      <c r="O142" t="str">
+        <f>VLOOKUP(R142,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1121</v>
+      </c>
       <c r="P142" t="s">
         <v>51</v>
       </c>
@@ -8787,6 +12242,10 @@
       <c r="N143">
         <v>0</v>
       </c>
+      <c r="O143" t="str">
+        <f>VLOOKUP(R143,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1583</v>
+      </c>
       <c r="P143" t="s">
         <v>42</v>
       </c>
@@ -8840,6 +12299,10 @@
       <c r="N144">
         <v>1</v>
       </c>
+      <c r="O144" t="str">
+        <f>VLOOKUP(R144,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>796</v>
+      </c>
       <c r="P144" t="s">
         <v>203</v>
       </c>
@@ -8893,6 +12356,10 @@
       <c r="N145">
         <v>1</v>
       </c>
+      <c r="O145" t="str">
+        <f>VLOOKUP(R145,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>427</v>
+      </c>
       <c r="P145" t="s">
         <v>86</v>
       </c>
@@ -8946,6 +12413,10 @@
       <c r="N146">
         <v>1</v>
       </c>
+      <c r="O146" t="str">
+        <f>VLOOKUP(R146,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1142</v>
+      </c>
       <c r="P146" t="s">
         <v>58</v>
       </c>
@@ -8999,6 +12470,10 @@
       <c r="N147">
         <v>1</v>
       </c>
+      <c r="O147" t="str">
+        <f>VLOOKUP(R147,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1263</v>
+      </c>
       <c r="P147" t="s">
         <v>116</v>
       </c>
@@ -9052,6 +12527,10 @@
       <c r="N148">
         <v>0</v>
       </c>
+      <c r="O148" t="str">
+        <f>VLOOKUP(R148,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>981</v>
+      </c>
       <c r="P148" t="s">
         <v>122</v>
       </c>
@@ -9105,6 +12584,10 @@
       <c r="N149">
         <v>1</v>
       </c>
+      <c r="O149" t="e">
+        <f>VLOOKUP(R149,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="P149" t="s">
         <v>193</v>
       </c>
@@ -9158,6 +12641,10 @@
       <c r="N150">
         <v>1</v>
       </c>
+      <c r="O150" t="str">
+        <f>VLOOKUP(R150,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>2122</v>
+      </c>
       <c r="P150" t="s">
         <v>179</v>
       </c>
@@ -9211,6 +12698,10 @@
       <c r="N151">
         <v>1</v>
       </c>
+      <c r="O151" t="str">
+        <f>VLOOKUP(R151,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1143</v>
+      </c>
       <c r="P151" t="s">
         <v>77</v>
       </c>
@@ -9264,6 +12755,10 @@
       <c r="N152">
         <v>1</v>
       </c>
+      <c r="O152" t="str">
+        <f>VLOOKUP(R152,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1953</v>
+      </c>
       <c r="P152" t="s">
         <v>152</v>
       </c>
@@ -9317,6 +12812,10 @@
       <c r="N153">
         <v>1</v>
       </c>
+      <c r="O153" t="str">
+        <f>VLOOKUP(R153,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1236</v>
+      </c>
       <c r="P153" t="s">
         <v>220</v>
       </c>
@@ -9370,6 +12869,10 @@
       <c r="N154">
         <v>1</v>
       </c>
+      <c r="O154" t="str">
+        <f>VLOOKUP(R154,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1908</v>
+      </c>
       <c r="P154" t="s">
         <v>112</v>
       </c>
@@ -9423,6 +12926,10 @@
       <c r="N155">
         <v>1</v>
       </c>
+      <c r="O155" t="str">
+        <f>VLOOKUP(R155,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>826</v>
+      </c>
       <c r="P155" t="s">
         <v>157</v>
       </c>
@@ -9476,6 +12983,10 @@
       <c r="N156">
         <v>0</v>
       </c>
+      <c r="O156" t="str">
+        <f>VLOOKUP(R156,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1589</v>
+      </c>
       <c r="P156" t="s">
         <v>78</v>
       </c>
@@ -9529,6 +13040,10 @@
       <c r="N157">
         <v>1</v>
       </c>
+      <c r="O157" t="str">
+        <f>VLOOKUP(R157,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>618</v>
+      </c>
       <c r="P157" t="s">
         <v>60</v>
       </c>
@@ -9582,6 +13097,10 @@
       <c r="N158">
         <v>1</v>
       </c>
+      <c r="O158" t="str">
+        <f>VLOOKUP(R158,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>635</v>
+      </c>
       <c r="P158" t="s">
         <v>129</v>
       </c>
@@ -9635,6 +13154,10 @@
       <c r="N159">
         <v>1</v>
       </c>
+      <c r="O159" t="str">
+        <f>VLOOKUP(R159,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1232</v>
+      </c>
       <c r="P159" t="s">
         <v>154</v>
       </c>
@@ -9688,6 +13211,10 @@
       <c r="N160">
         <v>1</v>
       </c>
+      <c r="O160" t="str">
+        <f>VLOOKUP(R160,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1225</v>
+      </c>
       <c r="P160" t="s">
         <v>163</v>
       </c>
@@ -9741,6 +13268,10 @@
       <c r="N161">
         <v>1</v>
       </c>
+      <c r="O161" t="str">
+        <f>VLOOKUP(R161,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>604</v>
+      </c>
       <c r="P161" t="s">
         <v>197</v>
       </c>
@@ -9794,6 +13325,10 @@
       <c r="N162">
         <v>1</v>
       </c>
+      <c r="O162" t="str">
+        <f>VLOOKUP(R162,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>770</v>
+      </c>
       <c r="P162" t="s">
         <v>147</v>
       </c>
@@ -9847,6 +13382,10 @@
       <c r="N163">
         <v>0</v>
       </c>
+      <c r="O163" t="str">
+        <f>VLOOKUP(R163,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>632</v>
+      </c>
       <c r="P163" t="s">
         <v>110</v>
       </c>
@@ -9900,6 +13439,10 @@
       <c r="N164">
         <v>0</v>
       </c>
+      <c r="O164" t="e">
+        <f>VLOOKUP(R164,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="P164" t="s">
         <v>93</v>
       </c>
@@ -9953,6 +13496,10 @@
       <c r="N165">
         <v>1</v>
       </c>
+      <c r="O165" t="str">
+        <f>VLOOKUP(R165,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>924</v>
+      </c>
       <c r="P165" t="s">
         <v>76</v>
       </c>
@@ -10006,6 +13553,10 @@
       <c r="N166">
         <v>1</v>
       </c>
+      <c r="O166" t="str">
+        <f>VLOOKUP(R166,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1093</v>
+      </c>
       <c r="P166" t="s">
         <v>205</v>
       </c>
@@ -10059,6 +13610,10 @@
       <c r="N167">
         <v>0</v>
       </c>
+      <c r="O167" t="str">
+        <f>VLOOKUP(R167,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1363</v>
+      </c>
       <c r="P167" t="s">
         <v>117</v>
       </c>
@@ -10112,6 +13667,10 @@
       <c r="N168">
         <v>1</v>
       </c>
+      <c r="O168" t="str">
+        <f>VLOOKUP(R168,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1255</v>
+      </c>
       <c r="P168" t="s">
         <v>124</v>
       </c>
@@ -10165,6 +13724,10 @@
       <c r="N169">
         <v>1</v>
       </c>
+      <c r="O169" t="str">
+        <f>VLOOKUP(R169,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>834</v>
+      </c>
       <c r="P169" t="s">
         <v>75</v>
       </c>
@@ -10218,6 +13781,10 @@
       <c r="N170">
         <v>1</v>
       </c>
+      <c r="O170" t="str">
+        <f>VLOOKUP(R170,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1494</v>
+      </c>
       <c r="P170" t="s">
         <v>226</v>
       </c>
@@ -10271,6 +13838,10 @@
       <c r="N171">
         <v>0</v>
       </c>
+      <c r="O171" t="str">
+        <f>VLOOKUP(R171,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1041</v>
+      </c>
       <c r="P171" t="s">
         <v>172</v>
       </c>
@@ -10324,6 +13895,10 @@
       <c r="N172">
         <v>1</v>
       </c>
+      <c r="O172" t="str">
+        <f>VLOOKUP(R172,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>679</v>
+      </c>
       <c r="P172" t="s">
         <v>207</v>
       </c>
@@ -10377,6 +13952,10 @@
       <c r="N173">
         <v>1</v>
       </c>
+      <c r="O173" t="str">
+        <f>VLOOKUP(R173,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1370</v>
+      </c>
       <c r="P173" t="s">
         <v>44</v>
       </c>
@@ -10430,6 +14009,10 @@
       <c r="N174">
         <v>1</v>
       </c>
+      <c r="O174" t="str">
+        <f>VLOOKUP(R174,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1068</v>
+      </c>
       <c r="P174" t="s">
         <v>56</v>
       </c>
@@ -10483,6 +14066,10 @@
       <c r="N175">
         <v>1</v>
       </c>
+      <c r="O175" t="str">
+        <f>VLOOKUP(R175,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1114</v>
+      </c>
       <c r="P175" t="s">
         <v>199</v>
       </c>
@@ -10536,6 +14123,10 @@
       <c r="N176">
         <v>1</v>
       </c>
+      <c r="O176" t="str">
+        <f>VLOOKUP(R176,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1163</v>
+      </c>
       <c r="P176" t="s">
         <v>120</v>
       </c>
@@ -10589,6 +14180,10 @@
       <c r="N177">
         <v>0</v>
       </c>
+      <c r="O177" t="str">
+        <f>VLOOKUP(R177,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>831</v>
+      </c>
       <c r="P177" t="s">
         <v>35</v>
       </c>
@@ -10642,6 +14237,10 @@
       <c r="N178">
         <v>1</v>
       </c>
+      <c r="O178" t="str">
+        <f>VLOOKUP(R178,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1333</v>
+      </c>
       <c r="P178" t="s">
         <v>144</v>
       </c>
@@ -10695,6 +14294,10 @@
       <c r="N179">
         <v>1</v>
       </c>
+      <c r="O179" t="str">
+        <f>VLOOKUP(R179,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>979</v>
+      </c>
       <c r="P179" t="s">
         <v>210</v>
       </c>
@@ -10748,6 +14351,10 @@
       <c r="N180">
         <v>0</v>
       </c>
+      <c r="O180" t="str">
+        <f>VLOOKUP(R180,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1128</v>
+      </c>
       <c r="P180" t="s">
         <v>79</v>
       </c>
@@ -10801,6 +14408,10 @@
       <c r="N181">
         <v>0</v>
       </c>
+      <c r="O181" t="str">
+        <f>VLOOKUP(R181,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1125</v>
+      </c>
       <c r="P181" t="s">
         <v>212</v>
       </c>
@@ -10854,6 +14465,10 @@
       <c r="N182">
         <v>1</v>
       </c>
+      <c r="O182" t="str">
+        <f>VLOOKUP(R182,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1069</v>
+      </c>
       <c r="P182" t="s">
         <v>59</v>
       </c>
@@ -10907,6 +14522,10 @@
       <c r="N183">
         <v>1</v>
       </c>
+      <c r="O183" t="str">
+        <f>VLOOKUP(R183,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>907</v>
+      </c>
       <c r="P183" t="s">
         <v>48</v>
       </c>
@@ -10960,6 +14579,10 @@
       <c r="N184">
         <v>1</v>
       </c>
+      <c r="O184" t="str">
+        <f>VLOOKUP(R184,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1481</v>
+      </c>
       <c r="P184" t="s">
         <v>57</v>
       </c>
@@ -11013,6 +14636,10 @@
       <c r="N185">
         <v>0</v>
       </c>
+      <c r="O185" t="str">
+        <f>VLOOKUP(R185,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1092</v>
+      </c>
       <c r="P185" t="s">
         <v>91</v>
       </c>
@@ -11066,6 +14693,10 @@
       <c r="N186">
         <v>1</v>
       </c>
+      <c r="O186" t="str">
+        <f>VLOOKUP(R186,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>799</v>
+      </c>
       <c r="P186" t="s">
         <v>72</v>
       </c>
@@ -11119,6 +14750,10 @@
       <c r="N187">
         <v>0</v>
       </c>
+      <c r="O187" t="str">
+        <f>VLOOKUP(R187,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1346</v>
+      </c>
       <c r="P187" t="s">
         <v>196</v>
       </c>
@@ -11172,6 +14807,10 @@
       <c r="N188">
         <v>1</v>
       </c>
+      <c r="O188" t="str">
+        <f>VLOOKUP(R188,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>779</v>
+      </c>
       <c r="P188" t="s">
         <v>98</v>
       </c>
@@ -11225,6 +14864,10 @@
       <c r="N189">
         <v>1</v>
       </c>
+      <c r="O189" t="str">
+        <f>VLOOKUP(R189,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>806</v>
+      </c>
       <c r="P189" t="s">
         <v>125</v>
       </c>
@@ -11278,6 +14921,10 @@
       <c r="N190">
         <v>1</v>
       </c>
+      <c r="O190" t="str">
+        <f>VLOOKUP(R190,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1366</v>
+      </c>
       <c r="P190" t="s">
         <v>83</v>
       </c>
@@ -11331,6 +14978,10 @@
       <c r="N191">
         <v>1</v>
       </c>
+      <c r="O191" t="str">
+        <f>VLOOKUP(R191,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>603</v>
+      </c>
       <c r="P191" t="s">
         <v>106</v>
       </c>
@@ -11384,6 +15035,10 @@
       <c r="N192">
         <v>1</v>
       </c>
+      <c r="O192" t="str">
+        <f>VLOOKUP(R192,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1091</v>
+      </c>
       <c r="P192" t="s">
         <v>219</v>
       </c>
@@ -11437,6 +15092,10 @@
       <c r="N193">
         <v>1</v>
       </c>
+      <c r="O193" t="str">
+        <f>VLOOKUP(R193,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1304</v>
+      </c>
       <c r="P193" t="s">
         <v>41</v>
       </c>
@@ -11490,6 +15149,10 @@
       <c r="N194">
         <v>1</v>
       </c>
+      <c r="O194" t="str">
+        <f>VLOOKUP(R194,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>738</v>
+      </c>
       <c r="P194" t="s">
         <v>209</v>
       </c>
@@ -11543,6 +15206,10 @@
       <c r="N195">
         <v>1</v>
       </c>
+      <c r="O195" t="str">
+        <f>VLOOKUP(R195,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>1244</v>
+      </c>
       <c r="P195" t="s">
         <v>47</v>
       </c>
@@ -11596,6 +15263,10 @@
       <c r="N196">
         <v>0</v>
       </c>
+      <c r="O196" t="str">
+        <f>VLOOKUP(R196,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>910</v>
+      </c>
       <c r="P196" t="s">
         <v>186</v>
       </c>
@@ -11648,6 +15319,10 @@
       </c>
       <c r="N197">
         <v>1</v>
+      </c>
+      <c r="O197" t="str">
+        <f>VLOOKUP(R197,[1]sheet1!$A$2:$B$360,2,0)</f>
+        <v>621</v>
       </c>
       <c r="P197" t="s">
         <v>65</v>
